--- a/_downloads/e74c0538549d639e01bc259f49e62b8a/feedback_studio_exercise.xlsx
+++ b/_downloads/e74c0538549d639e01bc259f49e62b8a/feedback_studio_exercise.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uq-my.sharepoint.com/personal/uqtmill1_uq_edu_au/Documents/Teaching/COMP1100/submissions/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uq-my.sharepoint.com/personal/uqtmill1_uq_edu_au/Documents/Teaching/COMP1100/course_notes/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="716" documentId="8_{20E96131-D217-439B-9B85-EE6764012348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8030DEBF-A143-4BFE-B87F-89EA72DC6FE7}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{189E3C48-3784-4932-B5E7-75FF86FD1F91}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="24220" windowHeight="15500" xr2:uid="{189E3C48-3784-4932-B5E7-75FF86FD1F91}"/>
   </bookViews>
   <sheets>
     <sheet name="Team X" sheetId="4" r:id="rId1"/>
@@ -308,34 +308,34 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -673,30 +673,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3B476EF-6FF7-4C70-9AAF-11AF75E70172}">
   <dimension ref="A1:E64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="56.140625" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" customWidth="1"/>
-    <col min="3" max="3" width="22.85546875" customWidth="1"/>
-    <col min="4" max="4" width="70.140625" customWidth="1"/>
+    <col min="1" max="1" width="56.1796875" customWidth="1"/>
+    <col min="2" max="2" width="9.54296875" customWidth="1"/>
+    <col min="3" max="3" width="22.81640625" customWidth="1"/>
+    <col min="4" max="4" width="70.1796875" customWidth="1"/>
     <col min="5" max="5" width="105" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -708,7 +708,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B4" s="1"/>
       <c r="C4" t="s">
         <v>4</v>
@@ -717,7 +717,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B5" s="1"/>
       <c r="C5" t="s">
         <v>6</v>
@@ -726,7 +726,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B6" s="1"/>
       <c r="C6" t="s">
         <v>8</v>
@@ -735,10 +735,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B7" s="1"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -750,7 +750,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B9" s="1"/>
       <c r="C9" s="2" t="s">
         <v>13</v>
@@ -759,7 +759,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B10" s="1"/>
       <c r="C10" s="2" t="s">
         <v>15</v>
@@ -768,8 +768,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="12" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="6" t="s">
         <v>17</v>
       </c>
@@ -778,7 +778,7 @@
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
     </row>
-    <row r="13" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>18</v>
       </c>
@@ -795,8 +795,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="21" t="s">
+    <row r="14" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="31" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="11">
@@ -804,51 +804,51 @@
       </c>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
-      <c r="E14" s="21"/>
-    </row>
-    <row r="15" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="22"/>
+      <c r="E14" s="31"/>
+    </row>
+    <row r="15" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="27"/>
       <c r="B15" s="9">
         <v>2</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
-      <c r="E15" s="25"/>
-    </row>
-    <row r="16" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="22"/>
+      <c r="E15" s="23"/>
+    </row>
+    <row r="16" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="27"/>
       <c r="B16" s="9">
         <v>3</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
-      <c r="E16" s="25"/>
-    </row>
-    <row r="17" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="23" t="s">
+      <c r="E16" s="23"/>
+    </row>
+    <row r="17" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="21" t="s">
         <v>22</v>
       </c>
       <c r="B17" s="2">
         <v>1</v>
       </c>
-      <c r="E17" s="22"/>
-    </row>
-    <row r="18" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="23"/>
+      <c r="E17" s="27"/>
+    </row>
+    <row r="18" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="21"/>
       <c r="B18" s="2">
         <v>2</v>
       </c>
-      <c r="E18" s="22"/>
-    </row>
-    <row r="19" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="23"/>
+      <c r="E18" s="27"/>
+    </row>
+    <row r="19" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="21"/>
       <c r="B19" s="2">
         <v>3</v>
       </c>
-      <c r="E19" s="22"/>
-    </row>
-    <row r="20" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="24" t="s">
+      <c r="E19" s="27"/>
+    </row>
+    <row r="20" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="29" t="s">
         <v>23</v>
       </c>
       <c r="B20" s="9">
@@ -856,52 +856,52 @@
       </c>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
-      <c r="E20" s="25"/>
-    </row>
-    <row r="21" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="23"/>
+      <c r="E20" s="23"/>
+    </row>
+    <row r="21" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="21"/>
       <c r="B21" s="9">
         <v>2</v>
       </c>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
-      <c r="E21" s="25"/>
-    </row>
-    <row r="22" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="23"/>
+      <c r="E21" s="23"/>
+    </row>
+    <row r="22" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="21"/>
       <c r="B22" s="9">
         <v>3</v>
       </c>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
-      <c r="E22" s="25"/>
-    </row>
-    <row r="23" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="23" t="s">
+      <c r="E22" s="23"/>
+    </row>
+    <row r="23" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="21" t="s">
         <v>24</v>
       </c>
       <c r="B23" s="2">
         <v>1</v>
       </c>
       <c r="D23" s="2"/>
-      <c r="E23" s="22"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="23"/>
+      <c r="E23" s="27"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" s="21"/>
       <c r="B24" s="2">
         <v>2</v>
       </c>
-      <c r="E24" s="22"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="23"/>
+      <c r="E24" s="27"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" s="21"/>
       <c r="B25" s="2">
         <v>3</v>
       </c>
-      <c r="E25" s="22"/>
-    </row>
-    <row r="26" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="24" t="s">
+      <c r="E25" s="27"/>
+    </row>
+    <row r="26" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="29" t="s">
         <v>25</v>
       </c>
       <c r="B26" s="17">
@@ -911,28 +911,28 @@
       <c r="D26" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="E26" s="25"/>
-    </row>
-    <row r="27" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="24"/>
+      <c r="E26" s="23"/>
+    </row>
+    <row r="27" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="29"/>
       <c r="B27" s="9">
         <v>2</v>
       </c>
       <c r="C27" s="10"/>
       <c r="D27" s="10"/>
-      <c r="E27" s="25"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="24"/>
+      <c r="E27" s="23"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" s="29"/>
       <c r="B28" s="9">
         <v>3</v>
       </c>
       <c r="C28" s="10"/>
       <c r="D28" s="10"/>
-      <c r="E28" s="25"/>
-    </row>
-    <row r="29" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="23" t="s">
+      <c r="E28" s="23"/>
+    </row>
+    <row r="29" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="21" t="s">
         <v>27</v>
       </c>
       <c r="B29" s="17">
@@ -942,10 +942,10 @@
       <c r="D29" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="E29" s="22"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="23"/>
+      <c r="E29" s="27"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" s="21"/>
       <c r="B30" s="17">
         <v>2</v>
       </c>
@@ -953,17 +953,17 @@
       <c r="D30" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="E30" s="22"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="23"/>
+      <c r="E30" s="27"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" s="21"/>
       <c r="B31" s="2">
         <v>3</v>
       </c>
-      <c r="E31" s="22"/>
-    </row>
-    <row r="32" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="24" t="s">
+      <c r="E31" s="27"/>
+    </row>
+    <row r="32" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="29" t="s">
         <v>29</v>
       </c>
       <c r="B32" s="17">
@@ -973,10 +973,10 @@
       <c r="D32" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="E32" s="25"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="24"/>
+      <c r="E32" s="23"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33" s="29"/>
       <c r="B33" s="17">
         <v>2</v>
       </c>
@@ -984,58 +984,58 @@
       <c r="D33" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="E33" s="25"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="24"/>
+      <c r="E33" s="23"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34" s="29"/>
       <c r="B34" s="9">
         <v>3</v>
       </c>
       <c r="C34" s="10"/>
       <c r="D34" s="10"/>
-      <c r="E34" s="25"/>
-    </row>
-    <row r="35" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="23" t="s">
+      <c r="E34" s="23"/>
+    </row>
+    <row r="35" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="21" t="s">
         <v>30</v>
       </c>
       <c r="B35" s="2">
         <v>1</v>
       </c>
-      <c r="E35" s="27"/>
-    </row>
-    <row r="36" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="23"/>
+      <c r="E35" s="24"/>
+    </row>
+    <row r="36" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="21"/>
       <c r="B36" s="2">
         <v>2</v>
       </c>
-      <c r="E36" s="28"/>
-    </row>
-    <row r="37" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="30"/>
+      <c r="E36" s="25"/>
+    </row>
+    <row r="37" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="28"/>
       <c r="B37" s="14">
         <v>3</v>
       </c>
       <c r="C37" s="15"/>
       <c r="D37" s="15"/>
-      <c r="E37" s="29"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E37" s="26"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B38" s="2"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="2"/>
     </row>
-    <row r="40" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="2"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="6" t="s">
         <v>32</v>
       </c>
@@ -1046,7 +1046,7 @@
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>34</v>
       </c>
@@ -1055,7 +1055,7 @@
         <v>123456789</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>35</v>
       </c>
@@ -1064,21 +1064,21 @@
       </c>
       <c r="C43" s="2"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="1"/>
       <c r="B44">
         <v>2</v>
       </c>
       <c r="C44" s="2"/>
     </row>
-    <row r="45" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="1"/>
       <c r="B45">
         <v>3</v>
       </c>
       <c r="C45" s="19"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
         <v>18</v>
       </c>
@@ -1093,8 +1093,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="31" t="s">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A47" s="30" t="s">
         <v>36</v>
       </c>
       <c r="B47" s="9">
@@ -1104,8 +1104,8 @@
       <c r="D47" s="9"/>
       <c r="E47" s="20"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="24"/>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A48" s="29"/>
       <c r="B48" s="9">
         <v>2</v>
       </c>
@@ -1113,8 +1113,8 @@
       <c r="D48" s="10"/>
       <c r="E48" s="12"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="24"/>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A49" s="29"/>
       <c r="B49" s="9">
         <v>3</v>
       </c>
@@ -1122,8 +1122,8 @@
       <c r="D49" s="10"/>
       <c r="E49" s="12"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="23" t="s">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A50" s="21" t="s">
         <v>37</v>
       </c>
       <c r="B50" s="2">
@@ -1131,26 +1131,26 @@
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
-      <c r="E50" s="23"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="23"/>
+      <c r="E50" s="21"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A51" s="21"/>
       <c r="B51" s="2">
         <v>2</v>
       </c>
       <c r="C51" s="2"/>
-      <c r="E51" s="23"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="23"/>
+      <c r="E51" s="21"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A52" s="21"/>
       <c r="B52" s="2">
         <v>3</v>
       </c>
       <c r="C52" s="2"/>
-      <c r="E52" s="23"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="24" t="s">
+      <c r="E52" s="21"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A53" s="29" t="s">
         <v>30</v>
       </c>
       <c r="B53" s="9">
@@ -1158,28 +1158,28 @@
       </c>
       <c r="C53" s="9"/>
       <c r="D53" s="9"/>
-      <c r="E53" s="24"/>
-    </row>
-    <row r="54" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="24"/>
+      <c r="E53" s="29"/>
+    </row>
+    <row r="54" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="29"/>
       <c r="B54" s="9">
         <v>2</v>
       </c>
       <c r="C54" s="9"/>
       <c r="D54" s="9"/>
-      <c r="E54" s="24"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="24"/>
+      <c r="E54" s="29"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A55" s="29"/>
       <c r="B55" s="9">
         <v>3</v>
       </c>
       <c r="C55" s="9"/>
       <c r="D55" s="10"/>
-      <c r="E55" s="24"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="23" t="s">
+      <c r="E55" s="29"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A56" s="21" t="s">
         <v>38</v>
       </c>
       <c r="B56" s="2">
@@ -1187,28 +1187,28 @@
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
-      <c r="E56" s="23"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="23"/>
+      <c r="E56" s="21"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A57" s="21"/>
       <c r="B57" s="2">
         <v>2</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
-      <c r="E57" s="23"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="23"/>
+      <c r="E57" s="21"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A58" s="21"/>
       <c r="B58" s="2">
         <v>3</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
-      <c r="E58" s="23"/>
-    </row>
-    <row r="59" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="24" t="s">
+      <c r="E58" s="21"/>
+    </row>
+    <row r="59" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="29" t="s">
         <v>39</v>
       </c>
       <c r="B59" s="9">
@@ -1216,55 +1216,66 @@
       </c>
       <c r="C59" s="9"/>
       <c r="D59" s="10"/>
-      <c r="E59" s="24"/>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="24"/>
+      <c r="E59" s="29"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A60" s="29"/>
       <c r="B60" s="9">
         <v>2</v>
       </c>
       <c r="C60" s="9"/>
       <c r="D60" s="10"/>
-      <c r="E60" s="24"/>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="24"/>
+      <c r="E60" s="29"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A61" s="29"/>
       <c r="B61" s="9">
         <v>3</v>
       </c>
       <c r="C61" s="9"/>
       <c r="D61" s="10"/>
-      <c r="E61" s="24"/>
-    </row>
-    <row r="62" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="23" t="s">
+      <c r="E61" s="29"/>
+    </row>
+    <row r="62" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="21" t="s">
         <v>40</v>
       </c>
       <c r="B62" s="2">
         <v>1</v>
       </c>
       <c r="C62" s="2"/>
-      <c r="E62" s="23"/>
-    </row>
-    <row r="63" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="23"/>
+      <c r="E62" s="21"/>
+    </row>
+    <row r="63" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="21"/>
       <c r="B63" s="2">
         <v>2</v>
       </c>
       <c r="C63" s="2"/>
-      <c r="E63" s="23"/>
-    </row>
-    <row r="64" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="26"/>
+      <c r="E63" s="21"/>
+    </row>
+    <row r="64" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A64" s="22"/>
       <c r="B64" s="4">
         <v>3</v>
       </c>
       <c r="C64" s="4"/>
       <c r="D64" s="5"/>
-      <c r="E64" s="26"/>
+      <c r="E64" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="A53:A55"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="E20:E22"/>
+    <mergeCell ref="E23:E25"/>
+    <mergeCell ref="E26:E28"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="A26:A28"/>
     <mergeCell ref="A56:A58"/>
     <mergeCell ref="A62:A64"/>
     <mergeCell ref="E62:E64"/>
@@ -1281,17 +1292,6 @@
     <mergeCell ref="A32:A34"/>
     <mergeCell ref="A47:A49"/>
     <mergeCell ref="A50:A52"/>
-    <mergeCell ref="A53:A55"/>
-    <mergeCell ref="E14:E16"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="E20:E22"/>
-    <mergeCell ref="E23:E25"/>
-    <mergeCell ref="E26:E28"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="A26:A28"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C38" xr:uid="{F9AEBA2D-1D7B-4A26-A3F4-83DE00D783BD}">
